--- a/02 - Introdcution to DA/output/GroupedOutput.xlsx
+++ b/02 - Introdcution to DA/output/GroupedOutput.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8ce6f9180d7905df/Base/Training/LuminarTechnoLab/LuminarTechnoLab/AIML-July/02 - Introdcution to DA/output/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_FD7684BF31F76FFC05FC9890E22D62B12035CD44" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{DC12F162-C57D-4D90-ACB7-1C68576B0E9B}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -58,8 +52,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,11 +105,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -125,14 +116,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -179,7 +162,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -211,27 +194,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -263,24 +228,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -456,21 +403,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A2:B11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -484,86 +424,86 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C2">
-        <v>36.237837837837837</v>
+        <v>36.23783783783784</v>
       </c>
       <c r="D2">
-        <v>37.108108108108112</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
+        <v>37.10810810810811</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C3">
-        <v>36.989473684210523</v>
+        <v>36.98947368421052</v>
       </c>
       <c r="D3">
-        <v>42.326315789473682</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+        <v>42.32631578947368</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C4">
-        <v>35.657640232108307</v>
+        <v>35.65764023210831</v>
       </c>
       <c r="D4">
-        <v>37.241779497098648</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
+        <v>37.24177949709865</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C5">
-        <v>38.994011976047901</v>
+        <v>38.9940119760479</v>
       </c>
       <c r="D5">
-        <v>41.248502994011979</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+        <v>41.24850299401198</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C6">
-        <v>37.905979202772961</v>
+        <v>37.90597920277296</v>
       </c>
       <c r="D6">
-        <v>37.113951473136908</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
+        <v>37.11395147313691</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C7">
-        <v>37.922591501893137</v>
+        <v>37.92259150189314</v>
       </c>
       <c r="D7">
-        <v>40.038704249053431</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+        <v>40.03870424905343</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -573,37 +513,37 @@
         <v>31.21290322580645</v>
       </c>
       <c r="D8">
-        <v>35.987096774193553</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
+        <v>35.98709677419355</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C9">
-        <v>35.167330677290828</v>
+        <v>35.16733067729083</v>
       </c>
       <c r="D9">
-        <v>41.187250996015933</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+        <v>41.18725099601593</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C10">
-        <v>36.882935441774777</v>
+        <v>36.88293544177478</v>
       </c>
       <c r="D10">
         <v>36.23581791663468</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
@@ -611,7 +551,7 @@
         <v>39.70450669914738</v>
       </c>
       <c r="D11">
-        <v>42.665947450843923</v>
+        <v>42.66594745084392</v>
       </c>
     </row>
   </sheetData>
